--- a/myapp/files/9_MethodComparePercent/Scenario 288.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 288.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>2768</v>
+        <v>16071</v>
       </c>
       <c r="F2" t="n">
-        <v>3.30381227471295</v>
+        <v>4.06729988079782</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -593,10 +593,10 @@
         <v>1.51515151515152</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>5.35714285714286</v>
+        <v>3.68663594470046</v>
       </c>
       <c r="K2" t="n">
         <v>5</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>1056</v>
+        <v>13792</v>
       </c>
       <c r="F3" t="n">
-        <v>1.26041393139338</v>
+        <v>3.49052330010351</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>1.78571428571429</v>
+        <v>2.76497695852535</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>7180</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1.81713727485087</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -669,10 +669,10 @@
         <v>1.51515151515152</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1.38248847926267</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>6423</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1.6255533031152</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1.38248847926267</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>3982</v>
+        <v>10480</v>
       </c>
       <c r="F6" t="n">
-        <v>4.75281086629586</v>
+        <v>2.65231178836172</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.57142857142857</v>
+        <v>2.30414746543779</v>
       </c>
       <c r="K6" t="n">
         <v>3</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>6850</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.73361982349979</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2.76497695852535</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>2199</v>
+        <v>11669</v>
       </c>
       <c r="F8" t="n">
-        <v>2.62466878327087</v>
+        <v>2.95322769641153</v>
       </c>
       <c r="G8" t="n">
         <v>2</v>
@@ -821,10 +821,10 @@
         <v>3.03030303030303</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J8" t="n">
-        <v>3.57142857142857</v>
+        <v>3.68663594470046</v>
       </c>
       <c r="K8" t="n">
         <v>3</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>4377</v>
+        <v>7386</v>
       </c>
       <c r="F9" t="n">
-        <v>5.22427251676971</v>
+        <v>1.86927241114882</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
@@ -859,10 +859,10 @@
         <v>3.03030303030303</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J9" t="n">
-        <v>3.57142857142857</v>
+        <v>4.14746543778802</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>1378</v>
+        <v>7729</v>
       </c>
       <c r="F10" t="n">
-        <v>1.64474469456447</v>
+        <v>1.95607994391677</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
@@ -897,10 +897,10 @@
         <v>3.03030303030303</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J10" t="n">
-        <v>1.78571428571429</v>
+        <v>5.06912442396313</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>15161</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>3.83699418161756</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -935,10 +935,10 @@
         <v>1.51515151515152</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>3.2258064516129</v>
       </c>
       <c r="K11" t="n">
         <v>3</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>2482</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.628152467434521</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.460829493087558</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>2842</v>
+        <v>17067</v>
       </c>
       <c r="F13" t="n">
-        <v>3.39213673581438</v>
+        <v>4.31937073396655</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1011,10 +1011,10 @@
         <v>1.51515151515152</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
-        <v>1.78571428571429</v>
+        <v>2.76497695852535</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>12807</v>
+        <v>39954</v>
       </c>
       <c r="F14" t="n">
-        <v>15.2860996395407</v>
+        <v>10.1116856099431</v>
       </c>
       <c r="G14" t="n">
         <v>9</v>
@@ -1049,10 +1049,10 @@
         <v>13.6363636363636</v>
       </c>
       <c r="I14" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="J14" t="n">
-        <v>12.5</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="K14" t="n">
         <v>11</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>12425</v>
+        <v>35908</v>
       </c>
       <c r="F15" t="n">
-        <v>14.8301544484495</v>
+        <v>9.08771103974165</v>
       </c>
       <c r="G15" t="n">
         <v>8</v>
@@ -1087,10 +1087,10 @@
         <v>12.1212121212121</v>
       </c>
       <c r="I15" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="J15" t="n">
-        <v>16.0714285714286</v>
+        <v>10.5990783410138</v>
       </c>
       <c r="K15" t="n">
         <v>7</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>5409</v>
+        <v>18194</v>
       </c>
       <c r="F16" t="n">
-        <v>6.45604067699506</v>
+        <v>4.6045954844898</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1125,10 +1125,10 @@
         <v>1.51515151515152</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J16" t="n">
-        <v>3.57142857142857</v>
+        <v>4.14746543778802</v>
       </c>
       <c r="K16" t="n">
         <v>3</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1056</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.267255844323471</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
@@ -1163,10 +1163,10 @@
         <v>3.03030303030303</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.460829493087558</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>2640</v>
+        <v>12944</v>
       </c>
       <c r="F18" t="n">
-        <v>3.15103482848345</v>
+        <v>3.27590875844981</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1201,10 +1201,10 @@
         <v>1.51515151515152</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J18" t="n">
-        <v>1.78571428571429</v>
+        <v>3.2258064516129</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>4887</v>
+        <v>36944</v>
       </c>
       <c r="F19" t="n">
-        <v>5.83299515409038</v>
+        <v>9.34990522034688</v>
       </c>
       <c r="G19" t="n">
         <v>9</v>
@@ -1239,10 +1239,10 @@
         <v>13.6363636363636</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J19" t="n">
-        <v>3.57142857142857</v>
+        <v>7.37327188940092</v>
       </c>
       <c r="K19" t="n">
         <v>4</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>9006</v>
+        <v>51720</v>
       </c>
       <c r="F20" t="n">
-        <v>10.7493256308038</v>
+        <v>13.0894623753882</v>
       </c>
       <c r="G20" t="n">
         <v>18</v>
@@ -1277,10 +1277,10 @@
         <v>27.2727272727273</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="J20" t="n">
-        <v>8.92857142857143</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="K20" t="n">
         <v>10</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>1596</v>
+        <v>15308</v>
       </c>
       <c r="F21" t="n">
-        <v>1.90494378267408</v>
+        <v>3.87419740994668</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
@@ -1315,10 +1315,10 @@
         <v>3.03030303030303</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>3.57142857142857</v>
+        <v>4.60829493087558</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1848</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.467697727566074</v>
       </c>
       <c r="G22" t="n">
         <v>2</v>
@@ -1353,10 +1353,10 @@
         <v>3.03030303030303</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.460829493087558</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>868</v>
+        <v>7906</v>
       </c>
       <c r="F23" t="n">
-        <v>1.0360220572438</v>
+        <v>2.00087566782326</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J23" t="n">
-        <v>1.78571428571429</v>
+        <v>2.30414746543779</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>6066</v>
+        <v>16149</v>
       </c>
       <c r="F24" t="n">
-        <v>7.24021866271992</v>
+        <v>4.08704036929899</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J24" t="n">
-        <v>7.14285714285714</v>
+        <v>3.68663594470046</v>
       </c>
       <c r="K24" t="n">
         <v>4</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>1533</v>
+        <v>16151</v>
       </c>
       <c r="F25" t="n">
-        <v>1.829748633358</v>
+        <v>4.08754653567081</v>
       </c>
       <c r="G25" t="n">
         <v>3</v>
@@ -1467,10 +1467,10 @@
         <v>4.54545454545454</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J25" t="n">
-        <v>8.92857142857143</v>
+        <v>5.52995391705069</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>7943</v>
+        <v>18755</v>
       </c>
       <c r="F26" t="n">
-        <v>9.4805566828197</v>
+        <v>4.74657515178664</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1505,10 +1505,10 @@
         <v>1.51515151515152</v>
       </c>
       <c r="I26" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J26" t="n">
-        <v>10.7142857142857</v>
+        <v>4.60829493087558</v>
       </c>
       <c r="K26" t="n">
         <v>6</v>
